--- a/distance_dataset.xlsx
+++ b/distance_dataset.xlsx
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$378</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$371</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>data</t>
   </si>
@@ -83,9 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -390,10 +395,2998 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.17880859609088201</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.31835908331753793</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.22430888003488519</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.41387955191536802</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.5921767573958672</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.5921767573958672</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.47259023005204392</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.2524175332781301</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.78378387303038788</v>
+      </c>
+      <c r="B10" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.1768080650180179</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.4223793298479116</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.2156200795754297</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.174328338545752</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.174328338545752</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.93824743765818652</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.55041206965383283</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.30953674023723771</v>
+      </c>
+      <c r="B22" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.40801845214224491</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.2466665605870848</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.35869596966853939</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B26" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B28" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B29" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B30" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B31" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B32" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B33" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.16736728324016939</v>
+      </c>
+      <c r="B34" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.6968200326519659</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.27018828797118299</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.17011090207962609</v>
+      </c>
+      <c r="B37" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B38" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.16411681421044261</v>
+      </c>
+      <c r="B39" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.28839674104215318</v>
+      </c>
+      <c r="B40" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.35696194466471309</v>
+      </c>
+      <c r="B41" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.73976105826646754</v>
+      </c>
+      <c r="B42" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B43" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B44" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B45" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1.47823340508903</v>
+      </c>
+      <c r="B46" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.16681137926905179</v>
+      </c>
+      <c r="B47" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.29665905217667382</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.50994482679552922</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B50" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.25940391468434021</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B52" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B53" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2.5921767573958672</v>
+      </c>
+      <c r="B54" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B55" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B56" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B57" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.36461047062417129</v>
+      </c>
+      <c r="B58" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.35228275690539218</v>
+      </c>
+      <c r="B59" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.21285006983371721</v>
+      </c>
+      <c r="B60" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1.4160854983401849</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.4465594734953891</v>
+      </c>
+      <c r="B62" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1.145573380865943</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B64" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.22294880696722169</v>
+      </c>
+      <c r="B65" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.36461047062417129</v>
+      </c>
+      <c r="B66" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.25442116302255752</v>
+      </c>
+      <c r="B67" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B68" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B69" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B70" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1.74707871738161</v>
+      </c>
+      <c r="B71" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B72" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B73" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.39273584091542191</v>
+      </c>
+      <c r="B74" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.20408889577667019</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.5244028245390141</v>
+      </c>
+      <c r="B76" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.22387015039090649</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.39318722725844291</v>
+      </c>
+      <c r="B78" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B79" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B80" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B81" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.18154508674329889</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B83" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.1252772857837533</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.3707422969135859</v>
+      </c>
+      <c r="B85" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.302514621967162</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.39125327983256591</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B88" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.3361133579908398</v>
+      </c>
+      <c r="B89" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B90" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.31250344012973152</v>
+      </c>
+      <c r="B91" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B92" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.17011090207962609</v>
+      </c>
+      <c r="B93" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.86501941129773607</v>
+      </c>
+      <c r="B94" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.2367485601424818</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.17011090207962609</v>
+      </c>
+      <c r="B96" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2.1150555026762041</v>
+      </c>
+      <c r="B97" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B98" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B99" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.30310572298856442</v>
+      </c>
+      <c r="B100" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B101" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>8.8567985215867909E-2</v>
+      </c>
+      <c r="B102" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.22020264794888411</v>
+      </c>
+      <c r="B103" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B104" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0.19203255678025971</v>
+      </c>
+      <c r="B105" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.21850958151086861</v>
+      </c>
+      <c r="B106" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0.9019806773673531</v>
+      </c>
+      <c r="B107" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B108" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B109" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.17411396541225649</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.22971759243758341</v>
+      </c>
+      <c r="B111" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B112" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.28487248447588942</v>
+      </c>
+      <c r="B113" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0.1542703982974106</v>
+      </c>
+      <c r="B114" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>0.1945076618783208</v>
+      </c>
+      <c r="B115" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0.25934792185991229</v>
+      </c>
+      <c r="B116" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0.1805396507699529</v>
+      </c>
+      <c r="B117" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.31967242575298521</v>
+      </c>
+      <c r="B118" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2.291146761731885</v>
+      </c>
+      <c r="B119" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.40205220273132147</v>
+      </c>
+      <c r="B120" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.19114956811823561</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.41468185142802078</v>
+      </c>
+      <c r="B122" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1.145573380865943</v>
+      </c>
+      <c r="B123" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0.35116160796138252</v>
+      </c>
+      <c r="B124" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1.893206753059848</v>
+      </c>
+      <c r="B125" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1.990116766067904</v>
+      </c>
+      <c r="B126" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>0.2223961121326288</v>
+      </c>
+      <c r="B127" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0.28138146488368759</v>
+      </c>
+      <c r="B128" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0.17448683930666231</v>
+      </c>
+      <c r="B129" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0.12186622603323261</v>
+      </c>
+      <c r="B130" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B131" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B132" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>0.23414680901855539</v>
+      </c>
+      <c r="B133" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0.13309787208244339</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.1315292444579392</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0.13760611859429669</v>
+      </c>
+      <c r="B136" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>0.19447523047338111</v>
+      </c>
+      <c r="B137" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0.1336253382853248</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B139" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0.12701921804190669</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B141" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B142" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B143" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.1101690659894151</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0.35335878425013689</v>
+      </c>
+      <c r="B145" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0.13541147253161101</v>
+      </c>
+      <c r="B146" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>0.2287615742535643</v>
+      </c>
+      <c r="B147" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>0.39062150914523658</v>
+      </c>
+      <c r="B148" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0.80165747737572146</v>
+      </c>
+      <c r="B149" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>0.12516178092566141</v>
+      </c>
+      <c r="B150" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>0.24553241523535391</v>
+      </c>
+      <c r="B151" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0.43127248119820683</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>0.45660466694781993</v>
+      </c>
+      <c r="B153" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0.19767843615380071</v>
+      </c>
+      <c r="B154" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0.32460642913556248</v>
+      </c>
+      <c r="B155" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0.379108457368593</v>
+      </c>
+      <c r="B156" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B157" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>0.5244028245390141</v>
+      </c>
+      <c r="B158" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>0.28776917276954672</v>
+      </c>
+      <c r="B159" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B160" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B161" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>0.347928190445422</v>
+      </c>
+      <c r="B162" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B163" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B164" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>0.3160090973244099</v>
+      </c>
+      <c r="B165" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B166" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>0.10278702192402731</v>
+      </c>
+      <c r="B167" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>0.26677012042066428</v>
+      </c>
+      <c r="B168" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>9.2147970088261186E-2</v>
+      </c>
+      <c r="B169" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>0.1365409530549419</v>
+      </c>
+      <c r="B170" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>0.17133622937453141</v>
+      </c>
+      <c r="B171" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>0.3361133579908398</v>
+      </c>
+      <c r="B172" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>0.34198926429830112</v>
+      </c>
+      <c r="B173" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>0.31429917272658942</v>
+      </c>
+      <c r="B174" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>0.30547031152818122</v>
+      </c>
+      <c r="B175" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>0.1516868159257091</v>
+      </c>
+      <c r="B176" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>0.17039698777603071</v>
+      </c>
+      <c r="B177" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1.8140255070122231</v>
+      </c>
+      <c r="B178" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B179" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0.2501290986961065</v>
+      </c>
+      <c r="B180" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0.48018726801989881</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>0.1061673278941255</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B183" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>0.1047109024775907</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B185" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B186" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>0.1000558985516402</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>0.11634720361229731</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>0.1217202226477876</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>0.15818642944514349</v>
+      </c>
+      <c r="B190" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>0.1699043319867147</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>0.14358359055189429</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B193" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>0.24541267542781581</v>
+      </c>
+      <c r="B194" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>0.48695095185914011</v>
+      </c>
+      <c r="B195" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>0.2348572961957277</v>
+      </c>
+      <c r="B196" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B197" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B198" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>0.27875672311552668</v>
+      </c>
+      <c r="B199" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>0.84120239481246606</v>
+      </c>
+      <c r="B200" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>0.39318722725844291</v>
+      </c>
+      <c r="B201" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>0.82732306285000834</v>
+      </c>
+      <c r="B202" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B203" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>0.55887734147222456</v>
+      </c>
+      <c r="B204" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0.38595484138697039</v>
+      </c>
+      <c r="B205" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0.1440918034631854</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>0.15088692669760731</v>
+      </c>
+      <c r="B207" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>0.32061660807390058</v>
+      </c>
+      <c r="B208" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B209" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>0.1113104510372003</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B211" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B212" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>0.29520922806602462</v>
+      </c>
+      <c r="B213" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>0.26724754464718758</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B215" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>0.19315037305158661</v>
+      </c>
+      <c r="B216" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>0.1154971819687239</v>
+      </c>
+      <c r="B217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B218" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B219" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>0.2353028805024783</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B221" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>0.8670875427892335</v>
+      </c>
+      <c r="B222" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>0.22242526529861181</v>
+      </c>
+      <c r="B223" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>0.663372255355968</v>
+      </c>
+      <c r="B224" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>0.17446689964133899</v>
+      </c>
+      <c r="B225" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B226" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>0.24998107894994559</v>
+      </c>
+      <c r="B227" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>0.18445687572229161</v>
+      </c>
+      <c r="B228" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B229" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B230" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B231" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B232" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B233" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>0.3401737545118137</v>
+      </c>
+      <c r="B234" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B235" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>0.23983042262382001</v>
+      </c>
+      <c r="B236" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>0.29413251869366641</v>
+      </c>
+      <c r="B237" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B238" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B239" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>0.21560026438901619</v>
+      </c>
+      <c r="B240" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B241" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B242" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B243" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>0.35778894443791481</v>
+      </c>
+      <c r="B244" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B245" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>0.34384368121500242</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B247" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>0.61822411092898777</v>
+      </c>
+      <c r="B248" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>0.26014867838549488</v>
+      </c>
+      <c r="B249" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>0.43269392664436679</v>
+      </c>
+      <c r="B250" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B251" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>0.10684758203907389</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>0.15275104774348769</v>
+      </c>
+      <c r="B253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>0.26761039111494439</v>
+      </c>
+      <c r="B254" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B255" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>0.1079976300766053</v>
+      </c>
+      <c r="B256" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B257" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>0.17243436995337491</v>
+      </c>
+      <c r="B258" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B259" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B260" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>0.46620370360835139</v>
+      </c>
+      <c r="B261" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>0.2074638170156328</v>
+      </c>
+      <c r="B262" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B263" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B264" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B265" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>0.1729276738961919</v>
+      </c>
+      <c r="B266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B267" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B268" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B269" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>1.2497540765736601</v>
+      </c>
+      <c r="B270" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0.30814818311340569</v>
+      </c>
+      <c r="B271" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>0.71070211449733267</v>
+      </c>
+      <c r="B272" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>0.25510273625322938</v>
+      </c>
+      <c r="B273" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>0.28666944237401731</v>
+      </c>
+      <c r="B274" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0.48332645517303457</v>
+      </c>
+      <c r="B275" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B276" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B277" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B278" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B279" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>0.14394647835594529</v>
+      </c>
+      <c r="B280" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>0.63994410365431331</v>
+      </c>
+      <c r="B281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>0.17446689964133899</v>
+      </c>
+      <c r="B282" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B283" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B284" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>0.27159411043951021</v>
+      </c>
+      <c r="B285" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B286" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>0.1166621179680631</v>
+      </c>
+      <c r="B287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>1.8140255070122231</v>
+      </c>
+      <c r="B288" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0.55396764155944955</v>
+      </c>
+      <c r="B289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B290" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B291" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B292" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0.13325793743998801</v>
+      </c>
+      <c r="B293" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0.1226647061600926</v>
+      </c>
+      <c r="B294" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0.1192337654586501</v>
+      </c>
+      <c r="B295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0.45864222883217559</v>
+      </c>
+      <c r="B296" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>0.72458419634269922</v>
+      </c>
+      <c r="B297" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B298" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B299" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0.27906823399595521</v>
+      </c>
+      <c r="B300" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>0.25088650246694538</v>
+      </c>
+      <c r="B301" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B302" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B303" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>0.86298993874219121</v>
+      </c>
+      <c r="B304" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>0.1462247386334033</v>
+      </c>
+      <c r="B305" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B306" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B307" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0.37602554469056881</v>
+      </c>
+      <c r="B308" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B309" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0.45827526932661061</v>
+      </c>
+      <c r="B310" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>2.5921767573958672</v>
+      </c>
+      <c r="B311" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>2.291146761731885</v>
+      </c>
+      <c r="B312" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>0.80396764155944955</v>
+      </c>
+      <c r="B313" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B314" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>0.55887734147222456</v>
+      </c>
+      <c r="B315" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0.18445687572229161</v>
+      </c>
+      <c r="B316" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0.23414680901855539</v>
+      </c>
+      <c r="B317" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>0.43269392664436679</v>
+      </c>
+      <c r="B318" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0.26041840503551761</v>
+      </c>
+      <c r="B319" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>0.53777961441207844</v>
+      </c>
+      <c r="B320" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0.23734684870694711</v>
+      </c>
+      <c r="B321" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>0.23414680901855539</v>
+      </c>
+      <c r="B322" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>0.31931909437368861</v>
+      </c>
+      <c r="B323" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0.1903545873728775</v>
+      </c>
+      <c r="B324" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0.26242219170906689</v>
+      </c>
+      <c r="B325" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>1.893206753059848</v>
+      </c>
+      <c r="B326" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0.17997132425841911</v>
+      </c>
+      <c r="B327" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B328" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B329" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0.17261252283393949</v>
+      </c>
+      <c r="B330" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>0.42445095185914011</v>
+      </c>
+      <c r="B331" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B332" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B333" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>0.77629306718602709</v>
+      </c>
+      <c r="B334" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0.2278403427929292</v>
+      </c>
+      <c r="B335" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B336" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>2.1150555026762041</v>
+      </c>
+      <c r="B337" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0.32586455408337739</v>
+      </c>
+      <c r="B338" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B339" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0.23414680901855539</v>
+      </c>
+      <c r="B340" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B341" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>0.35670579307868361</v>
+      </c>
+      <c r="B342" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B343" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0.21293030921066841</v>
+      </c>
+      <c r="B344" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B345" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0.36438333098603809</v>
+      </c>
+      <c r="B346" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>0.22192508016816451</v>
+      </c>
+      <c r="B347" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0.26079174161891522</v>
+      </c>
+      <c r="B348" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B349" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>0.12955069663358779</v>
+      </c>
+      <c r="B350" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>0.15853730394658391</v>
+      </c>
+      <c r="B351" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B352" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>0.37608904996631742</v>
+      </c>
+      <c r="B353" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>0.25177340429529288</v>
+      </c>
+      <c r="B354" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0.86790088779507768</v>
+      </c>
+      <c r="B355" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>0.61915669883685276</v>
+      </c>
+      <c r="B356" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B357" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>0.62922514047544487</v>
+      </c>
+      <c r="B358" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0.1264919805192645</v>
+      </c>
+      <c r="B359" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B360" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>0.73227025242210675</v>
+      </c>
+      <c r="B361" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B362" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>0.18258160961376621</v>
+      </c>
+      <c r="B363" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B364" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B365" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>2.1150555026762041</v>
+      </c>
+      <c r="B366" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B367" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B368" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>0.1418375440022803</v>
+      </c>
+      <c r="B369" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B370" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B371" s="2">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B371"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B371"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +3395,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -410,7 +3403,7 @@
       <c r="A2">
         <v>0.17880859609088201</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
     </row>
@@ -418,7 +3411,7 @@
       <c r="A3">
         <v>0.31835908331753793</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -426,7 +3419,7 @@
       <c r="A4">
         <v>0.22430888003488519</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>6</v>
       </c>
     </row>
@@ -434,303 +3427,303 @@
       <c r="A5">
         <v>0.41387955191536802</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.36043246512605481</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
+        <v>2.5921767573958672</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.5921767573958672</v>
       </c>
-      <c r="B7">
-        <v>15</v>
+      <c r="B7" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2.5921767573958672</v>
-      </c>
-      <c r="B8">
+        <v>0.47259023005204392</v>
+      </c>
+      <c r="B8" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.47259023005204392</v>
-      </c>
-      <c r="B9">
+        <v>0.2524175332781301</v>
+      </c>
+      <c r="B9" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.2524175332781301</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
+        <v>0.78378387303038788</v>
+      </c>
+      <c r="B10" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.78378387303038788</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
+        <v>1.1768080650180179</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.1768080650180179</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
+        <v>0.4223793298479116</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.54499525962685791</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.4223793298479116</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
+        <v>0.2156200795754297</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.30672597721581579</v>
-      </c>
-      <c r="B15">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B15" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.2156200795754297</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
+        <v>0.174328338545752</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.63303878068221942</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
+        <v>0.174328338545752</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B18">
+        <v>0.93824743765818652</v>
+      </c>
+      <c r="B18" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.174328338545752</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B19" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.174328338545752</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B20" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.93824743765818652</v>
-      </c>
-      <c r="B21">
-        <v>16</v>
+        <v>0.55041206965383283</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.2432955479206903</v>
-      </c>
-      <c r="B22">
-        <v>13</v>
+        <v>0.30953674023723771</v>
+      </c>
+      <c r="B22" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B23">
-        <v>16</v>
+        <v>0.40801845214224491</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B24">
-        <v>16</v>
+        <v>0.2466665605870848</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.55041206965383283</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
+        <v>0.35869596966853939</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.30953674023723771</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B26" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.40801845214224491</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.2466665605870848</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B28" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.35869596966853939</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B29" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.23662707198252991</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B31">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B31" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B32">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B32" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B33">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B33" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
+        <v>0.16736728324016939</v>
+      </c>
+      <c r="B34" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B35">
-        <v>16</v>
+        <v>0.6968200326519659</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1.8140255070122231</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+        <v>0.27018828797118299</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B37">
+        <v>0.17011090207962609</v>
+      </c>
+      <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B38">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B38" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.16736728324016939</v>
-      </c>
-      <c r="B39">
-        <v>14</v>
+        <v>0.16411681421044261</v>
+      </c>
+      <c r="B39" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.6968200326519659</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
+        <v>0.28839674104215318</v>
+      </c>
+      <c r="B40" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.27018828797118299</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
+        <v>0.35696194466471309</v>
+      </c>
+      <c r="B41" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.17011090207962609</v>
-      </c>
-      <c r="B42">
+        <v>0.73976105826646754</v>
+      </c>
+      <c r="B42" s="2">
         <v>16</v>
       </c>
     </row>
@@ -738,239 +3731,239 @@
       <c r="A43">
         <v>0.84398873038966626</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.16411681421044261</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B44" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.28839674104215318</v>
-      </c>
-      <c r="B45">
-        <v>11</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B45" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.35696194466471309</v>
-      </c>
-      <c r="B46">
-        <v>11</v>
+        <v>1.47823340508903</v>
+      </c>
+      <c r="B46" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.73976105826646754</v>
-      </c>
-      <c r="B47">
+        <v>0.16681137926905179</v>
+      </c>
+      <c r="B47" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B48">
-        <v>16</v>
+        <v>0.29665905217667382</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B49">
-        <v>16</v>
+        <v>0.50994482679552922</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.84398873038966626</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1.47823340508903</v>
-      </c>
-      <c r="B51">
-        <v>14</v>
+        <v>0.25940391468434021</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.16681137926905179</v>
-      </c>
-      <c r="B52">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B52" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.29665905217667382</v>
-      </c>
-      <c r="B53">
-        <v>9</v>
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B53" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.50994482679552922</v>
-      </c>
-      <c r="B54">
-        <v>9</v>
+        <v>2.5921767573958672</v>
+      </c>
+      <c r="B54" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.84398873038966626</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.25940391468434021</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B56" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B57">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B57" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.17344016000412649</v>
-      </c>
-      <c r="B58">
+        <v>0.36461047062417129</v>
+      </c>
+      <c r="B58" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2.5921767573958672</v>
-      </c>
-      <c r="B59">
-        <v>14</v>
+        <v>0.35228275690539218</v>
+      </c>
+      <c r="B59" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B60">
-        <v>16</v>
+        <v>0.21285006983371721</v>
+      </c>
+      <c r="B60" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B61">
-        <v>16</v>
+        <v>1.4160854983401849</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B62">
-        <v>16</v>
+        <v>0.4465594734953891</v>
+      </c>
+      <c r="B62" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.36461047062417129</v>
-      </c>
-      <c r="B63">
-        <v>16</v>
+        <v>1.145573380865943</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.35228275690539218</v>
-      </c>
-      <c r="B64">
-        <v>10</v>
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B64" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.21285006983371721</v>
-      </c>
-      <c r="B65">
-        <v>9</v>
+        <v>0.22294880696722169</v>
+      </c>
+      <c r="B65" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1.4160854983401849</v>
-      </c>
-      <c r="B66">
-        <v>9</v>
+        <v>0.36461047062417129</v>
+      </c>
+      <c r="B66" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.4465594734953891</v>
-      </c>
-      <c r="B67">
-        <v>9</v>
+        <v>0.25442116302255752</v>
+      </c>
+      <c r="B67" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1.145573380865943</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B68" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.30672597721581579</v>
-      </c>
-      <c r="B69">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B69" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.22294880696722169</v>
-      </c>
-      <c r="B70">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B70" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.36461047062417129</v>
-      </c>
-      <c r="B71">
+        <v>1.74707871738161</v>
+      </c>
+      <c r="B71" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.25442116302255752</v>
-      </c>
-      <c r="B72">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B72" s="2">
         <v>16</v>
       </c>
     </row>
@@ -978,1167 +3971,1167 @@
       <c r="A73">
         <v>0.6144531521070189</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B74">
-        <v>16</v>
+        <v>0.39273584091542191</v>
+      </c>
+      <c r="B74" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B75">
-        <v>16</v>
+        <v>0.20408889577667019</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1.74707871738161</v>
-      </c>
-      <c r="B76">
+        <v>0.5244028245390141</v>
+      </c>
+      <c r="B76" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B77">
-        <v>16</v>
+        <v>0.22387015039090649</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B78">
+        <v>0.39318722725844291</v>
+      </c>
+      <c r="B78" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.39273584091542191</v>
-      </c>
-      <c r="B79">
-        <v>19</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B79" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.20408889577667019</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B80" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.5244028245390141</v>
-      </c>
-      <c r="B81">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B81" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.22387015039090649</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
+        <v>0.18154508674329889</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.39318722725844291</v>
-      </c>
-      <c r="B83">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B83" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B84">
-        <v>16</v>
+        <v>0.1252772857837533</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B85">
-        <v>16</v>
+        <v>0.3707422969135859</v>
+      </c>
+      <c r="B85" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B86">
-        <v>16</v>
+        <v>0.302514621967162</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.18154508674329889</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
+        <v>0.39125327983256591</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.84398873038966626</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.1252772857837533</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
+        <v>0.3361133579908398</v>
+      </c>
+      <c r="B89" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.3707422969135859</v>
-      </c>
-      <c r="B90">
-        <v>11</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B90" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.302514621967162</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
+        <v>0.31250344012973152</v>
+      </c>
+      <c r="B91" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.39125327983256591</v>
-      </c>
-      <c r="B92">
-        <v>2</v>
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B92" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B93">
+        <v>0.17011090207962609</v>
+      </c>
+      <c r="B93" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0.3361133579908398</v>
-      </c>
-      <c r="B94">
-        <v>17</v>
+        <v>0.86501941129773607</v>
+      </c>
+      <c r="B94" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B95">
-        <v>16</v>
+        <v>0.2367485601424818</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0.31250344012973152</v>
-      </c>
-      <c r="B96">
-        <v>10</v>
+        <v>0.17011090207962609</v>
+      </c>
+      <c r="B96" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.17344016000412649</v>
-      </c>
-      <c r="B97">
+        <v>2.1150555026762041</v>
+      </c>
+      <c r="B97" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0.17011090207962609</v>
-      </c>
-      <c r="B98">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B98" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0.86501941129773607</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B99" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.2367485601424818</v>
-      </c>
-      <c r="B100">
+        <v>0.30310572298856442</v>
+      </c>
+      <c r="B100" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.17011090207962609</v>
-      </c>
-      <c r="B101">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B101" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2.1150555026762041</v>
-      </c>
-      <c r="B102">
+        <v>8.8567985215867909E-2</v>
+      </c>
+      <c r="B102" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B103">
-        <v>16</v>
+        <v>0.22020264794888411</v>
+      </c>
+      <c r="B103" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.17344016000412649</v>
-      </c>
-      <c r="B104">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B104" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.30310572298856442</v>
-      </c>
-      <c r="B105">
-        <v>4</v>
+        <v>0.19203255678025971</v>
+      </c>
+      <c r="B105" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B106">
+        <v>0.21850958151086861</v>
+      </c>
+      <c r="B106" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>8.8567985215867909E-2</v>
-      </c>
-      <c r="B107">
-        <v>16</v>
+        <v>0.9019806773673531</v>
+      </c>
+      <c r="B107" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.22020264794888411</v>
-      </c>
-      <c r="B108">
-        <v>11</v>
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B108" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.6144531521070189</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.19203255678025971</v>
-      </c>
-      <c r="B110">
-        <v>11</v>
+        <v>0.17411396541225649</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.21850958151086861</v>
-      </c>
-      <c r="B111">
-        <v>16</v>
+        <v>0.22971759243758341</v>
+      </c>
+      <c r="B111" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.9019806773673531</v>
-      </c>
-      <c r="B112">
-        <v>11</v>
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B112" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.17344016000412649</v>
-      </c>
-      <c r="B113">
-        <v>16</v>
+        <v>0.28487248447588942</v>
+      </c>
+      <c r="B113" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B114">
-        <v>16</v>
+        <v>0.1542703982974106</v>
+      </c>
+      <c r="B114" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>0.17411396541225649</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
+        <v>0.1945076618783208</v>
+      </c>
+      <c r="B115" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>0.22971759243758341</v>
-      </c>
-      <c r="B116">
-        <v>14</v>
+        <v>0.25934792185991229</v>
+      </c>
+      <c r="B116" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B117">
-        <v>17</v>
+        <v>0.1805396507699529</v>
+      </c>
+      <c r="B117" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0.28487248447588942</v>
-      </c>
-      <c r="B118">
-        <v>3</v>
+        <v>0.31967242575298521</v>
+      </c>
+      <c r="B118" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>0.1542703982974106</v>
-      </c>
-      <c r="B119">
-        <v>14</v>
+        <v>2.291146761731885</v>
+      </c>
+      <c r="B119" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>0.1945076618783208</v>
-      </c>
-      <c r="B120">
-        <v>11</v>
+        <v>0.40205220273132147</v>
+      </c>
+      <c r="B120" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>0.25934792185991229</v>
-      </c>
-      <c r="B121">
-        <v>11</v>
+        <v>0.19114956811823561</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.1805396507699529</v>
-      </c>
-      <c r="B122">
-        <v>14</v>
+        <v>0.41468185142802078</v>
+      </c>
+      <c r="B122" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.31967242575298521</v>
-      </c>
-      <c r="B123">
+        <v>1.145573380865943</v>
+      </c>
+      <c r="B123" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2.291146761731885</v>
-      </c>
-      <c r="B124">
-        <v>11</v>
+        <v>0.35116160796138252</v>
+      </c>
+      <c r="B124" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0.40205220273132147</v>
-      </c>
-      <c r="B125">
-        <v>15</v>
+        <v>1.893206753059848</v>
+      </c>
+      <c r="B125" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.19114956811823561</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
+        <v>1.990116766067904</v>
+      </c>
+      <c r="B126" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.41468185142802078</v>
-      </c>
-      <c r="B127">
-        <v>11</v>
+        <v>0.2223961121326288</v>
+      </c>
+      <c r="B127" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1.145573380865943</v>
-      </c>
-      <c r="B128">
-        <v>11</v>
+        <v>0.28138146488368759</v>
+      </c>
+      <c r="B128" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.35116160796138252</v>
-      </c>
-      <c r="B129">
-        <v>15</v>
+        <v>0.17448683930666231</v>
+      </c>
+      <c r="B129" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1.893206753059848</v>
-      </c>
-      <c r="B130">
-        <v>10</v>
+        <v>0.12186622603323261</v>
+      </c>
+      <c r="B130" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1.990116766067904</v>
-      </c>
-      <c r="B131">
-        <v>10</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B131" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.2223961121326288</v>
-      </c>
-      <c r="B132">
-        <v>10</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B132" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.28138146488368759</v>
-      </c>
-      <c r="B133">
+        <v>0.23414680901855539</v>
+      </c>
+      <c r="B133" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.17448683930666231</v>
-      </c>
-      <c r="B134">
-        <v>16</v>
+        <v>0.13309787208244339</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.12186622603323261</v>
-      </c>
-      <c r="B135">
-        <v>16</v>
+        <v>0.1315292444579392</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B136">
-        <v>16</v>
+        <v>0.13760611859429669</v>
+      </c>
+      <c r="B136" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B137">
-        <v>16</v>
+        <v>0.19447523047338111</v>
+      </c>
+      <c r="B137" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0.23414680901855539</v>
-      </c>
-      <c r="B138">
-        <v>16</v>
+        <v>0.1336253382853248</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.13309787208244339</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B139" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.1315292444579392</v>
-      </c>
-      <c r="B140">
+        <v>0.12701921804190669</v>
+      </c>
+      <c r="B140" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.13760611859429669</v>
-      </c>
-      <c r="B141">
-        <v>14</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B141" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.19447523047338111</v>
-      </c>
-      <c r="B142">
-        <v>4</v>
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B142" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.1336253382853248</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B143" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.17344016000412649</v>
-      </c>
-      <c r="B144">
-        <v>16</v>
+        <v>0.1101690659894151</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>0.12701921804190669</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
+        <v>0.35335878425013689</v>
+      </c>
+      <c r="B145" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B146">
-        <v>16</v>
+        <v>0.13541147253161101</v>
+      </c>
+      <c r="B146" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B147">
+        <v>0.2287615742535643</v>
+      </c>
+      <c r="B147" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.17344016000412649</v>
-      </c>
-      <c r="B148">
+        <v>0.39062150914523658</v>
+      </c>
+      <c r="B148" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.1101690659894151</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
+        <v>0.80165747737572146</v>
+      </c>
+      <c r="B149" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.35335878425013689</v>
-      </c>
-      <c r="B150">
-        <v>16</v>
+        <v>0.12516178092566141</v>
+      </c>
+      <c r="B150" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.13541147253161101</v>
-      </c>
-      <c r="B151">
+        <v>0.24553241523535391</v>
+      </c>
+      <c r="B151" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.2287615742535643</v>
-      </c>
-      <c r="B152">
-        <v>16</v>
+        <v>0.43127248119820683</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.39062150914523658</v>
-      </c>
-      <c r="B153">
-        <v>16</v>
+        <v>0.45660466694781993</v>
+      </c>
+      <c r="B153" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.80165747737572146</v>
-      </c>
-      <c r="B154">
-        <v>16</v>
+        <v>0.19767843615380071</v>
+      </c>
+      <c r="B154" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.12516178092566141</v>
-      </c>
-      <c r="B155">
+        <v>0.32460642913556248</v>
+      </c>
+      <c r="B155" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.24553241523535391</v>
-      </c>
-      <c r="B156">
-        <v>14</v>
+        <v>0.379108457368593</v>
+      </c>
+      <c r="B156" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.43127248119820683</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B157" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.45660466694781993</v>
-      </c>
-      <c r="B158">
-        <v>17</v>
+        <v>0.5244028245390141</v>
+      </c>
+      <c r="B158" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.19767843615380071</v>
-      </c>
-      <c r="B159">
-        <v>14</v>
+        <v>0.28776917276954672</v>
+      </c>
+      <c r="B159" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.32460642913556248</v>
-      </c>
-      <c r="B160">
-        <v>14</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B160" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.379108457368593</v>
-      </c>
-      <c r="B161">
+        <v>0.6144531521070189</v>
+      </c>
+      <c r="B161" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B162">
-        <v>16</v>
+        <v>0.347928190445422</v>
+      </c>
+      <c r="B162" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.5244028245390141</v>
-      </c>
-      <c r="B163">
-        <v>14</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B163" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.28776917276954672</v>
-      </c>
-      <c r="B164">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B164" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B165">
-        <v>16</v>
+        <v>0.3160090973244099</v>
+      </c>
+      <c r="B165" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.6144531521070189</v>
-      </c>
-      <c r="B166">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B166" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.347928190445422</v>
-      </c>
-      <c r="B167">
-        <v>10</v>
+        <v>0.10278702192402731</v>
+      </c>
+      <c r="B167" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B168">
-        <v>16</v>
+        <v>0.26677012042066428</v>
+      </c>
+      <c r="B168" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B169">
-        <v>16</v>
+        <v>9.2147970088261186E-2</v>
+      </c>
+      <c r="B169" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.3160090973244099</v>
-      </c>
-      <c r="B170">
-        <v>4</v>
+        <v>0.1365409530549419</v>
+      </c>
+      <c r="B170" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B171">
+        <v>0.17133622937453141</v>
+      </c>
+      <c r="B171" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.10278702192402731</v>
-      </c>
-      <c r="B172">
-        <v>14</v>
+        <v>0.3361133579908398</v>
+      </c>
+      <c r="B172" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.26677012042066428</v>
-      </c>
-      <c r="B173">
-        <v>14</v>
+        <v>0.34198926429830112</v>
+      </c>
+      <c r="B173" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>9.2147970088261186E-2</v>
-      </c>
-      <c r="B174">
-        <v>14</v>
+        <v>0.31429917272658942</v>
+      </c>
+      <c r="B174" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.1365409530549419</v>
-      </c>
-      <c r="B175">
-        <v>16</v>
+        <v>0.30547031152818122</v>
+      </c>
+      <c r="B175" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.17133622937453141</v>
-      </c>
-      <c r="B176">
+        <v>0.1516868159257091</v>
+      </c>
+      <c r="B176" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.3361133579908398</v>
-      </c>
-      <c r="B177">
-        <v>17</v>
+        <v>0.17039698777603071</v>
+      </c>
+      <c r="B177" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.34198926429830112</v>
-      </c>
-      <c r="B178">
-        <v>11</v>
+        <v>1.8140255070122231</v>
+      </c>
+      <c r="B178" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.31429917272658942</v>
-      </c>
-      <c r="B179">
-        <v>11</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B179" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.30547031152818122</v>
-      </c>
-      <c r="B180">
-        <v>11</v>
+        <v>0.2501290986961065</v>
+      </c>
+      <c r="B180" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.1516868159257091</v>
-      </c>
-      <c r="B181">
-        <v>16</v>
+        <v>0.48018726801989881</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.17039698777603071</v>
-      </c>
-      <c r="B182">
-        <v>14</v>
+        <v>0.1061673278941255</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1.8140255070122231</v>
-      </c>
-      <c r="B183">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B183" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B184">
-        <v>16</v>
+        <v>0.1047109024775907</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.2501290986961065</v>
-      </c>
-      <c r="B185">
-        <v>4</v>
+        <v>0.17344016000412649</v>
+      </c>
+      <c r="B185" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.48018726801989881</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B186" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.1061673278941255</v>
-      </c>
-      <c r="B187">
+        <v>0.1000558985516402</v>
+      </c>
+      <c r="B187" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B188">
-        <v>16</v>
+        <v>0.11634720361229731</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.1047109024775907</v>
-      </c>
-      <c r="B189">
+        <v>0.1217202226477876</v>
+      </c>
+      <c r="B189" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0.17344016000412649</v>
-      </c>
-      <c r="B190">
-        <v>16</v>
+        <v>0.15818642944514349</v>
+      </c>
+      <c r="B190" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B191">
-        <v>16</v>
+        <v>0.1699043319867147</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>0.1000558985516402</v>
-      </c>
-      <c r="B192">
+        <v>0.14358359055189429</v>
+      </c>
+      <c r="B192" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>0.11634720361229731</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B193" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.1217202226477876</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
+        <v>0.24541267542781581</v>
+      </c>
+      <c r="B194" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.15818642944514349</v>
-      </c>
-      <c r="B195">
-        <v>14</v>
+        <v>0.48695095185914011</v>
+      </c>
+      <c r="B195" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.1699043319867147</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
+        <v>0.2348572961957277</v>
+      </c>
+      <c r="B196" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.14358359055189429</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B197" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B198">
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B198" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.50562208928941488</v>
-      </c>
-      <c r="B199">
-        <v>5</v>
+        <v>0.27875672311552668</v>
+      </c>
+      <c r="B199" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.72458419634269922</v>
-      </c>
-      <c r="B200">
-        <v>5</v>
+        <v>0.84120239481246606</v>
+      </c>
+      <c r="B200" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>0.24541267542781581</v>
-      </c>
-      <c r="B201">
-        <v>11</v>
+        <v>0.39318722725844291</v>
+      </c>
+      <c r="B201" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0.48695095185914011</v>
-      </c>
-      <c r="B202">
-        <v>11</v>
+        <v>0.82732306285000834</v>
+      </c>
+      <c r="B202" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>0.2348572961957277</v>
-      </c>
-      <c r="B203">
-        <v>4</v>
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B203" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>0.1781996786670873</v>
-      </c>
-      <c r="B204">
+        <v>0.55887734147222456</v>
+      </c>
+      <c r="B204" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>0.2011982277479995</v>
-      </c>
-      <c r="B205">
+        <v>0.38595484138697039</v>
+      </c>
+      <c r="B205" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>0.27875672311552668</v>
-      </c>
-      <c r="B206">
-        <v>14</v>
+        <v>0.1440918034631854</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>0.84120239481246606</v>
-      </c>
-      <c r="B207">
-        <v>14</v>
+        <v>0.15088692669760731</v>
+      </c>
+      <c r="B207" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0.39318722725844291</v>
-      </c>
-      <c r="B208">
-        <v>16</v>
+        <v>0.32061660807390058</v>
+      </c>
+      <c r="B208" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0.82732306285000834</v>
-      </c>
-      <c r="B209">
-        <v>14</v>
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B209" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B210">
-        <v>16</v>
+        <v>0.1113104510372003</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>0.55887734147222456</v>
-      </c>
-      <c r="B211">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B211" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>0.38595484138697039</v>
-      </c>
-      <c r="B212">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B212" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0.1440918034631854</v>
-      </c>
-      <c r="B213">
-        <v>2</v>
+        <v>0.29520922806602462</v>
+      </c>
+      <c r="B213" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.15088692669760731</v>
-      </c>
-      <c r="B214">
-        <v>16</v>
+        <v>0.26724754464718758</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.32061660807390058</v>
-      </c>
-      <c r="B215">
-        <v>14</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B215" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.30672597721581579</v>
-      </c>
-      <c r="B216">
+        <v>0.19315037305158661</v>
+      </c>
+      <c r="B216" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>0.1113104510372003</v>
-      </c>
-      <c r="B217">
+        <v>0.1154971819687239</v>
+      </c>
+      <c r="B217" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B218">
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B218" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2146,207 +5139,207 @@
       <c r="A219">
         <v>0.22302290314263681</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>0.29520922806602462</v>
-      </c>
-      <c r="B220">
-        <v>16</v>
+        <v>0.2353028805024783</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>0.26724754464718758</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B221" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B222">
+        <v>0.8670875427892335</v>
+      </c>
+      <c r="B222" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>0.19315037305158661</v>
-      </c>
-      <c r="B223">
-        <v>16</v>
+        <v>0.22242526529861181</v>
+      </c>
+      <c r="B223" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>0.1154971819687239</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
+        <v>0.663372255355968</v>
+      </c>
+      <c r="B224" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>0.2011982277479995</v>
-      </c>
-      <c r="B225">
+        <v>0.17446689964133899</v>
+      </c>
+      <c r="B225" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B226">
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B226" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>0.2353028805024783</v>
-      </c>
-      <c r="B227">
-        <v>0</v>
+        <v>0.24998107894994559</v>
+      </c>
+      <c r="B227" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B228">
+        <v>0.18445687572229161</v>
+      </c>
+      <c r="B228" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>0.8670875427892335</v>
-      </c>
-      <c r="B229">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B229" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>0.22242526529861181</v>
-      </c>
-      <c r="B230">
-        <v>14</v>
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B230" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>0.663372255355968</v>
-      </c>
-      <c r="B231">
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B231" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>0.17446689964133899</v>
-      </c>
-      <c r="B232">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B232" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>0.30672597721581579</v>
-      </c>
-      <c r="B233">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B233" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>0.24998107894994559</v>
-      </c>
-      <c r="B234">
-        <v>11</v>
+        <v>0.3401737545118137</v>
+      </c>
+      <c r="B234" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>0.18445687572229161</v>
-      </c>
-      <c r="B235">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B235" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B236">
+        <v>0.23983042262382001</v>
+      </c>
+      <c r="B236" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>0.2011982277479995</v>
-      </c>
-      <c r="B237">
-        <v>16</v>
+        <v>0.29413251869366641</v>
+      </c>
+      <c r="B237" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>0.1781996786670873</v>
-      </c>
-      <c r="B238">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B238" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B239">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B239" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B240">
-        <v>16</v>
+        <v>0.21560026438901619</v>
+      </c>
+      <c r="B240" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.3401737545118137</v>
-      </c>
-      <c r="B241">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B241" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B242">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B242" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>0.23983042262382001</v>
-      </c>
-      <c r="B243">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B243" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>0.29413251869366641</v>
-      </c>
-      <c r="B244">
+        <v>0.35778894443791481</v>
+      </c>
+      <c r="B244" s="2">
         <v>14</v>
       </c>
     </row>
@@ -2354,311 +5347,311 @@
       <c r="A245">
         <v>0.19894411314664279</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B246">
-        <v>16</v>
+        <v>0.34384368121500242</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>0.21560026438901619</v>
-      </c>
-      <c r="B247">
-        <v>14</v>
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B247" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B248">
-        <v>16</v>
+        <v>0.61822411092898777</v>
+      </c>
+      <c r="B248" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B249">
+        <v>0.26014867838549488</v>
+      </c>
+      <c r="B249" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B250">
-        <v>16</v>
+        <v>0.43269392664436679</v>
+      </c>
+      <c r="B250" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.35778894443791481</v>
-      </c>
-      <c r="B251">
-        <v>14</v>
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B251" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B252">
-        <v>16</v>
+        <v>0.10684758203907389</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.34384368121500242</v>
-      </c>
-      <c r="B253">
+        <v>0.15275104774348769</v>
+      </c>
+      <c r="B253" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B254">
-        <v>16</v>
+        <v>0.26761039111494439</v>
+      </c>
+      <c r="B254" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.61822411092898777</v>
-      </c>
-      <c r="B255">
-        <v>6</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B255" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>0.26014867838549488</v>
-      </c>
-      <c r="B256">
+        <v>0.1079976300766053</v>
+      </c>
+      <c r="B256" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.43269392664436679</v>
-      </c>
-      <c r="B257">
-        <v>7</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B257" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B258">
-        <v>16</v>
+        <v>0.17243436995337491</v>
+      </c>
+      <c r="B258" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>0.10684758203907389</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B259" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.15275104774348769</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B260" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.26761039111494439</v>
-      </c>
-      <c r="B261">
-        <v>14</v>
+        <v>0.46620370360835139</v>
+      </c>
+      <c r="B261" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B262">
-        <v>16</v>
+        <v>0.2074638170156328</v>
+      </c>
+      <c r="B262" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>0.1079976300766053</v>
-      </c>
-      <c r="B263">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B263" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B264">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B264" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.17243436995337491</v>
-      </c>
-      <c r="B265">
-        <v>14</v>
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B265" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B266">
-        <v>16</v>
+        <v>0.1729276738961919</v>
+      </c>
+      <c r="B266" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B267">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B267" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.46620370360835139</v>
-      </c>
-      <c r="B268">
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B268" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.2074638170156328</v>
-      </c>
-      <c r="B269">
-        <v>14</v>
+        <v>0.2011982277479995</v>
+      </c>
+      <c r="B269" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B270">
-        <v>16</v>
+        <v>1.2497540765736601</v>
+      </c>
+      <c r="B270" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B271">
-        <v>16</v>
+        <v>0.30814818311340569</v>
+      </c>
+      <c r="B271" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>0.30672597721581579</v>
-      </c>
-      <c r="B272">
-        <v>16</v>
+        <v>0.71070211449733267</v>
+      </c>
+      <c r="B272" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>0.1729276738961919</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
+        <v>0.25510273625322938</v>
+      </c>
+      <c r="B273" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B274">
+        <v>0.28666944237401731</v>
+      </c>
+      <c r="B274" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.2011982277479995</v>
-      </c>
-      <c r="B275">
-        <v>16</v>
+        <v>0.48332645517303457</v>
+      </c>
+      <c r="B275" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.2011982277479995</v>
-      </c>
-      <c r="B276">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B276" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>1.2497540765736601</v>
-      </c>
-      <c r="B277">
-        <v>17</v>
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B277" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.30814818311340569</v>
-      </c>
-      <c r="B278">
-        <v>18</v>
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B278" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.71070211449733267</v>
-      </c>
-      <c r="B279">
-        <v>18</v>
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B279" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.25510273625322938</v>
-      </c>
-      <c r="B280">
-        <v>16</v>
+        <v>0.14394647835594529</v>
+      </c>
+      <c r="B280" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>0.28666944237401731</v>
-      </c>
-      <c r="B281">
-        <v>16</v>
+        <v>0.63994410365431331</v>
+      </c>
+      <c r="B281" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>0.48332645517303457</v>
-      </c>
-      <c r="B282">
-        <v>14</v>
+        <v>0.17446689964133899</v>
+      </c>
+      <c r="B282" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B283">
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B283" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2666,119 +5659,119 @@
       <c r="A284">
         <v>0.22302290314263681</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B285">
-        <v>16</v>
+        <v>0.27159411043951021</v>
+      </c>
+      <c r="B285" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>0.1781996786670873</v>
-      </c>
-      <c r="B286">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B286" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>0.14394647835594529</v>
-      </c>
-      <c r="B287">
-        <v>14</v>
+        <v>0.1166621179680631</v>
+      </c>
+      <c r="B287" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>0.63994410365431331</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
+        <v>1.8140255070122231</v>
+      </c>
+      <c r="B288" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>0.17446689964133899</v>
-      </c>
-      <c r="B289">
-        <v>16</v>
+        <v>0.55396764155944955</v>
+      </c>
+      <c r="B289" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>0.1781996786670873</v>
-      </c>
-      <c r="B290">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B290" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B291">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B291" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>0.27159411043951021</v>
-      </c>
-      <c r="B292">
-        <v>14</v>
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B292" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B293">
-        <v>16</v>
+        <v>0.13325793743998801</v>
+      </c>
+      <c r="B293" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>0.1166621179680631</v>
-      </c>
-      <c r="B294">
+        <v>0.1226647061600926</v>
+      </c>
+      <c r="B294" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>1.8140255070122231</v>
-      </c>
-      <c r="B295">
-        <v>16</v>
+        <v>0.1192337654586501</v>
+      </c>
+      <c r="B295" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>0.55396764155944955</v>
-      </c>
-      <c r="B296">
-        <v>0</v>
+        <v>0.45864222883217559</v>
+      </c>
+      <c r="B296" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B297">
-        <v>16</v>
+        <v>0.72458419634269922</v>
+      </c>
+      <c r="B297" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B298">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B298" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2786,55 +5779,55 @@
       <c r="A299">
         <v>0.22302290314263681</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>0.13325793743998801</v>
-      </c>
-      <c r="B300">
+        <v>0.27906823399595521</v>
+      </c>
+      <c r="B300" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>0.1226647061600926</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
+        <v>0.25088650246694538</v>
+      </c>
+      <c r="B301" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>0.1192337654586501</v>
-      </c>
-      <c r="B302">
-        <v>0</v>
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B302" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>0.45864222883217559</v>
-      </c>
-      <c r="B303">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B303" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>0.72458419634269922</v>
-      </c>
-      <c r="B304">
-        <v>4</v>
+        <v>0.86298993874219121</v>
+      </c>
+      <c r="B304" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B305">
+        <v>0.1462247386334033</v>
+      </c>
+      <c r="B305" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2842,63 +5835,63 @@
       <c r="A306">
         <v>0.22302290314263681</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>0.27906823399595521</v>
-      </c>
-      <c r="B307">
-        <v>0</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B307" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>0.25088650246694538</v>
-      </c>
-      <c r="B308">
-        <v>16</v>
+        <v>0.37602554469056881</v>
+      </c>
+      <c r="B308" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B309">
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B309" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B310">
+        <v>0.45827526932661061</v>
+      </c>
+      <c r="B310" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>0.86298993874219121</v>
-      </c>
-      <c r="B311">
-        <v>7</v>
+        <v>2.5921767573958672</v>
+      </c>
+      <c r="B311" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>0.1462247386334033</v>
-      </c>
-      <c r="B312">
+        <v>2.291146761731885</v>
+      </c>
+      <c r="B312" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B313">
+        <v>0.80396764155944955</v>
+      </c>
+      <c r="B313" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2906,525 +5899,467 @@
       <c r="A314">
         <v>0.23662707198252991</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>0.37602554469056881</v>
-      </c>
-      <c r="B315">
-        <v>14</v>
+        <v>0.55887734147222456</v>
+      </c>
+      <c r="B315" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B316">
+        <v>0.18445687572229161</v>
+      </c>
+      <c r="B316" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>0.45827526932661061</v>
-      </c>
-      <c r="B317">
+        <v>0.23414680901855539</v>
+      </c>
+      <c r="B317" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>2.5921767573958672</v>
-      </c>
-      <c r="B318">
+        <v>0.43269392664436679</v>
+      </c>
+      <c r="B318" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>2.291146761731885</v>
-      </c>
-      <c r="B319">
-        <v>16</v>
+        <v>0.26041840503551761</v>
+      </c>
+      <c r="B319" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>0.80396764155944955</v>
-      </c>
-      <c r="B320">
+        <v>0.53777961441207844</v>
+      </c>
+      <c r="B320" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B321">
-        <v>16</v>
+        <v>0.23734684870694711</v>
+      </c>
+      <c r="B321" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>0.55887734147222456</v>
-      </c>
-      <c r="B322">
-        <v>6</v>
+        <v>0.23414680901855539</v>
+      </c>
+      <c r="B322" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.18445687572229161</v>
-      </c>
-      <c r="B323">
-        <v>16</v>
+        <v>0.31931909437368861</v>
+      </c>
+      <c r="B323" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>0.23414680901855539</v>
-      </c>
-      <c r="B324">
-        <v>16</v>
+        <v>0.1903545873728775</v>
+      </c>
+      <c r="B324" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>0.43269392664436679</v>
-      </c>
-      <c r="B325">
-        <v>16</v>
+        <v>0.26242219170906689</v>
+      </c>
+      <c r="B325" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>0.26041840503551761</v>
-      </c>
-      <c r="B326">
-        <v>7</v>
+        <v>1.893206753059848</v>
+      </c>
+      <c r="B326" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.53777961441207844</v>
-      </c>
-      <c r="B327">
+        <v>0.17997132425841911</v>
+      </c>
+      <c r="B327" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.23734684870694711</v>
-      </c>
-      <c r="B328">
-        <v>10</v>
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B328" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>0.23414680901855539</v>
-      </c>
-      <c r="B329">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B329" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>0.31931909437368861</v>
-      </c>
-      <c r="B330">
-        <v>17</v>
+        <v>0.17261252283393949</v>
+      </c>
+      <c r="B330" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>0.1903545873728775</v>
-      </c>
-      <c r="B331">
-        <v>4</v>
+        <v>0.42445095185914011</v>
+      </c>
+      <c r="B331" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0.26242219170906689</v>
-      </c>
-      <c r="B332">
-        <v>4</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B332" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>1.893206753059848</v>
-      </c>
-      <c r="B333">
-        <v>4</v>
+        <v>0.30672597721581579</v>
+      </c>
+      <c r="B333" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>0.17997132425841911</v>
-      </c>
-      <c r="B334">
-        <v>16</v>
+        <v>0.77629306718602709</v>
+      </c>
+      <c r="B334" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B335">
-        <v>16</v>
+        <v>0.2278403427929292</v>
+      </c>
+      <c r="B335" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B336">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B336" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.17261252283393949</v>
-      </c>
-      <c r="B337">
-        <v>18</v>
+        <v>2.1150555026762041</v>
+      </c>
+      <c r="B337" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>0.42445095185914011</v>
-      </c>
-      <c r="B338">
-        <v>18</v>
+        <v>0.32586455408337739</v>
+      </c>
+      <c r="B338" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>0.23662707198252991</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>0.30672597721581579</v>
-      </c>
-      <c r="B340">
+        <v>0.23414680901855539</v>
+      </c>
+      <c r="B340" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>0.77629306718602709</v>
-      </c>
-      <c r="B341">
-        <v>7</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B341" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>0.2278403427929292</v>
-      </c>
-      <c r="B342">
-        <v>14</v>
+        <v>0.35670579307868361</v>
+      </c>
+      <c r="B342" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>0.23662707198252991</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>2.1150555026762041</v>
-      </c>
-      <c r="B344">
-        <v>14</v>
+        <v>0.21293030921066841</v>
+      </c>
+      <c r="B344" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>0.32586455408337739</v>
-      </c>
-      <c r="B345">
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B345" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B346">
-        <v>16</v>
+        <v>0.36438333098603809</v>
+      </c>
+      <c r="B346" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>0.23414680901855539</v>
-      </c>
-      <c r="B347">
-        <v>16</v>
+        <v>0.22192508016816451</v>
+      </c>
+      <c r="B347" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B348">
-        <v>16</v>
+        <v>0.26079174161891522</v>
+      </c>
+      <c r="B348" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.35670579307868361</v>
-      </c>
-      <c r="B349">
-        <v>0</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B349" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B350">
-        <v>16</v>
+        <v>0.12955069663358779</v>
+      </c>
+      <c r="B350" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>0.21293030921066841</v>
-      </c>
-      <c r="B351">
-        <v>0</v>
+        <v>0.15853730394658391</v>
+      </c>
+      <c r="B351" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>0.22302290314263681</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>0.36438333098603809</v>
-      </c>
-      <c r="B353">
-        <v>14</v>
+        <v>0.37608904996631742</v>
+      </c>
+      <c r="B353" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>0.22192508016816451</v>
-      </c>
-      <c r="B354">
-        <v>14</v>
+        <v>0.25177340429529288</v>
+      </c>
+      <c r="B354" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>0.26079174161891522</v>
-      </c>
-      <c r="B355">
-        <v>14</v>
+        <v>0.86790088779507768</v>
+      </c>
+      <c r="B355" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B356">
-        <v>16</v>
+        <v>0.61915669883685276</v>
+      </c>
+      <c r="B356" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>0.12955069663358779</v>
-      </c>
-      <c r="B357">
-        <v>0</v>
+        <v>0.19894411314664279</v>
+      </c>
+      <c r="B357" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>0.15853730394658391</v>
-      </c>
-      <c r="B358">
-        <v>16</v>
+        <v>0.62922514047544487</v>
+      </c>
+      <c r="B358" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B359">
-        <v>16</v>
+        <v>0.1264919805192645</v>
+      </c>
+      <c r="B359" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>0.37608904996631742</v>
-      </c>
-      <c r="B360">
-        <v>4</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B360" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>0.25177340429529288</v>
-      </c>
-      <c r="B361">
-        <v>4</v>
+        <v>0.73227025242210675</v>
+      </c>
+      <c r="B361" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>0.86790088779507768</v>
-      </c>
-      <c r="B362">
-        <v>4</v>
+        <v>0.1781996786670873</v>
+      </c>
+      <c r="B362" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>0.61915669883685276</v>
-      </c>
-      <c r="B363">
-        <v>15</v>
+        <v>0.18258160961376621</v>
+      </c>
+      <c r="B363" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0.19894411314664279</v>
-      </c>
-      <c r="B364">
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B364" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>0.62922514047544487</v>
-      </c>
-      <c r="B365">
-        <v>14</v>
+        <v>0.22302290314263681</v>
+      </c>
+      <c r="B365" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>0.1264919805192645</v>
-      </c>
-      <c r="B366">
-        <v>0</v>
+        <v>2.1150555026762041</v>
+      </c>
+      <c r="B366" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B367">
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B367" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>0.73227025242210675</v>
-      </c>
-      <c r="B368">
-        <v>14</v>
+        <v>0.84398873038966626</v>
+      </c>
+      <c r="B368" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0.1781996786670873</v>
-      </c>
-      <c r="B369">
-        <v>16</v>
+        <v>0.1418375440022803</v>
+      </c>
+      <c r="B369" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>0.18258160961376621</v>
-      </c>
-      <c r="B370">
-        <v>18</v>
+        <v>0.23662707198252991</v>
+      </c>
+      <c r="B370" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>0.23662707198252991</v>
       </c>
-      <c r="B371">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>0.22302290314263681</v>
-      </c>
-      <c r="B372">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>2.1150555026762041</v>
-      </c>
-      <c r="B373">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B374">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>0.84398873038966626</v>
-      </c>
-      <c r="B375">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>0.1418375440022803</v>
-      </c>
-      <c r="B376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B377">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>0.23662707198252991</v>
-      </c>
-      <c r="B378">
+      <c r="B371" s="2">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B378"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>